--- a/medicine/Psychotrope/Ajaccio_(AOC)/Ajaccio_(AOC).xlsx
+++ b/medicine/Psychotrope/Ajaccio_(AOC)/Ajaccio_(AOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L’ajaccio[5], auparavant coteaux-d'ajaccio[5], est un vin d'appellation d'origine contrôlée produit autour d'Ajaccio, dans le département de la Corse-du-Sud.
-La tradition vigneronne de cette région, parmi les plus anciennes de l’île, s’est développée autour de domaines soigneusement entretenus et de parcelles où croît le sciaccarellu. Fleuron des cépages corses, il donne typicité et élégance aux rouges et aux rosés[6].
+L’ajaccio, auparavant coteaux-d'ajaccio, est un vin d'appellation d'origine contrôlée produit autour d'Ajaccio, dans le département de la Corse-du-Sud.
+La tradition vigneronne de cette région, parmi les plus anciennes de l’île, s’est développée autour de domaines soigneusement entretenus et de parcelles où croît le sciaccarellu. Fleuron des cépages corses, il donne typicité et élégance aux rouges et aux rosés.
 </t>
         </is>
       </c>
@@ -515,11 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antiquité
-Moyen Âge
-Période moderne
-Période contemporaine
-L'appellation est reconnue par le décret du 3 avril 1984.
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'appellation est reconnue par le décret du 3 avril 1984.
 </t>
         </is>
       </c>
@@ -549,6 +563,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,13 +592,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orographie
-Le vignoble est installé sur des coteaux et s'élèvent sur les pentes les plus élevés de Corse. Il est généralement situé à une moyenne de 500 mètres d'altitude[7].
-Géologie
-Chaîne de montagnes, sortie de la mer, les plus hauts sommets de l'île culminent à plus de 2 000 mètres d'altitude. Les coteaux-d'ajaccio sont implantés sur un sol granitique particulièrement propice à la vigne[8].
-Climatologie
-Avec 2 750 heures d’ensoleillement par an, l'île offre à la vigne à la fois une chaleur, très présente en été, mais modérée par les influences maritimes et montagnardes. De plus les gelées y sont rares et le printemps précoce[8].
-Source : Météo France - Stations météo d'Ajaccio[9],[10] et Relevés 1971-2000[11]
+          <t>Orographie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble est installé sur des coteaux et s'élèvent sur les pentes les plus élevés de Corse. Il est généralement situé à une moyenne de 500 mètres d'altitude.
 </t>
         </is>
       </c>
@@ -608,23 +624,205 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaîne de montagnes, sortie de la mer, les plus hauts sommets de l'île culminent à plus de 2 000 mètres d'altitude. Les coteaux-d'ajaccio sont implantés sur un sol granitique particulièrement propice à la vigne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ajaccio_(AOC)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ajaccio_(AOC)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec 2 750 heures d’ensoleillement par an, l'île offre à la vigne à la fois une chaleur, très présente en été, mais modérée par les influences maritimes et montagnardes. De plus les gelées y sont rares et le printemps précoce.
+Source : Météo France - Stations météo d'Ajaccio, et Relevés 1971-2000
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ajaccio_(AOC)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ajaccio_(AOC)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Présentation
-Le vignoble s'étend sur les communes de : Afa, Ajaccio, Alata, Albitreccia, Ambiegna, Appietto, Arbori, Arro, Bastelicaccia, Calcatoggio, Cannelle, Carbuccia, Cargèse, Casaglione, Casalabriva, Cauro, Coggia, Cognocoli-Monticchi, Coti-Chiavari, Cuttoli-Corticchiato, Eccica-Suarella, Grosseto-Prugna, Ocana, Peri, Piana, Pietrosella, Pila-Canale, Sant'Andréa-d'Orcino, Sari-d'Orcino, Sarrola-Carcopino, Serra-di-Ferro, Tavaco, Valle-di-Mezzana, Vero, Vico et Villanova[7].
-Encépagement
-Cette appellation d'origine contrôlée est plantée essentiellement d'un cépage : le sciacarello. Les ampélographes affirment qu'il serait non seulement originaire de l'île mais de ce terroir.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble s'étend sur les communes de : Afa, Ajaccio, Alata, Albitreccia, Ambiegna, Appietto, Arbori, Arro, Bastelicaccia, Calcatoggio, Cannelle, Carbuccia, Cargèse, Casaglione, Casalabriva, Cauro, Coggia, Cognocoli-Monticchi, Coti-Chiavari, Cuttoli-Corticchiato, Eccica-Suarella, Grosseto-Prugna, Ocana, Peri, Piana, Pietrosella, Pila-Canale, Sant'Andréa-d'Orcino, Sari-d'Orcino, Sarrola-Carcopino, Serra-di-Ferro, Tavaco, Valle-di-Mezzana, Vero, Vico et Villanova.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ajaccio_(AOC)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ajaccio_(AOC)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Cette appellation d'origine contrôlée est plantée essentiellement d'un cépage : le sciacarello. Les ampélographes affirment qu'il serait non seulement originaire de l'île mais de ce terroir.
 Les vins blancs sont issus des cépages suivants : cépage principal : vermentino B (malvoisie de Corse) ; cépages accessoires : biancu gentile B, codivarta B, genovese B et ugni blanc B (rossola).
-Les vins rouges et rosés sont issus des cépages suivants : cépages principaux : barbarossa Rs, nielluccio N, sciaccarello N, vermentino B (malvoisie de Corse) ; cépages accessoires : aleatico N, carcajolo nero N, carignan N, cinsaut N, grenache N et minustello N.
-Méthodes culturales et réglementations
-Structure des exploitations
-Terroir et vins
-Les rouges sont des vins charnus, bâtis en souplesse sur une solide ossature, à la robe plutôt claire, au nez d'épices, de tabac et de fruits rouges. Leur délai de garde est de 4 à 6 ans. Ils doivent être servis entre 15 et 17 °C.
-Commercialisation
-L'appellation coteaux- d'ajaccio représentent 7,3 % des volumes agréés des AOC corses.
+Les vins rouges et rosés sont issus des cépages suivants : cépages principaux : barbarossa Rs, nielluccio N, sciaccarello N, vermentino B (malvoisie de Corse) ; cépages accessoires : aleatico N, carcajolo nero N, carignan N, cinsaut N, grenache N et minustello N.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ajaccio_(AOC)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ajaccio_(AOC)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Terroir et vins</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les rouges sont des vins charnus, bâtis en souplesse sur une solide ossature, à la robe plutôt claire, au nez d'épices, de tabac et de fruits rouges. Leur délai de garde est de 4 à 6 ans. Ils doivent être servis entre 15 et 17 °C.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ajaccio_(AOC)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ajaccio_(AOC)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Commercialisation</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'appellation coteaux- d'ajaccio représentent 7,3 % des volumes agréés des AOC corses.
 </t>
         </is>
       </c>
